--- a/UserInterface/Content/Uploads/ImportedFiles/OtherExpense_00.00.0000_E0.xlsx
+++ b/UserInterface/Content/Uploads/ImportedFiles/OtherExpense_00.00.0000_E0.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="DataSheet" sheetId="1" r:id="rId1"/>
     <sheet name="Column Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -532,7 +532,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
